--- a/Day 1/Exercises Answers.xlsx
+++ b/Day 1/Exercises Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Google Drive\Academic\USP\Teaching\IPSA\2019\Making Causal Critiques\Website\Causal_Critiques\Day 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B0283A-EAB4-458A-9A42-05A82DBBEFF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA9AAF7-9F84-4E59-818A-AE2C942930A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{776020A3-7A97-430D-BAC8-616EFBD77424}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294967195" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>Valid Arguments</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Unclear ('always')</t>
+  </si>
+  <si>
+    <t>Consistent (if 60% hurt)</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F033AC-82C9-4EF2-AA37-0E9E055D1FF3}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -900,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -954,6 +957,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
